--- a/output/StructureDefinition-HIV-MedStatement.xlsx
+++ b/output/StructureDefinition-HIV-MedStatement.xlsx
@@ -349,7 +349,7 @@
     <t>ARTStartType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/fhir/fish/StructureDefinition/ARTStartType}
+    <t xml:space="preserve">Extension {http://regenstrief.org/fhir/StructureDefinition/ARTStartType}
 </t>
   </si>
   <si>
